--- a/transfer/public/asset/xlsx/branch.xlsx
+++ b/transfer/public/asset/xlsx/branch.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\alzawia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A229D216-C565-4D9B-8EF9-3C0A6B022CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Branch" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Branch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,64 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t xml:space="preserve">Branch</t>
+    <t>Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">غريان</t>
+    <t>صبراته</t>
   </si>
   <si>
-    <t xml:space="preserve">ابوسليم</t>
+    <t>الزاوية</t>
   </si>
   <si>
-    <t xml:space="preserve">العالمية الكفرة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية بن جواد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية اجدابيا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية زليتن</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية مصراته</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية الزاوية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية سرت</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية صبراته</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية سوق الاحد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية بني وليد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية الخمس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية وادي الربيع</t>
-  </si>
-  <si>
-    <t xml:space="preserve">العالمية الفرناج</t>
+    <t>جنزور</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,25 +52,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -123,7 +73,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -131,92 +81,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -224,12 +148,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -258,7 +182,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -279,7 +203,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -330,7 +254,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -348,117 +272,87 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.09"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>